--- a/pie.xlsx
+++ b/pie.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Projection" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -127,6 +127,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="12"/>
   <chart>
     <title>
       <tx>
@@ -137,72 +138,22 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Pies sold by category</a:t>
+              <a:t>Energias Totales Diarias</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
     </title>
     <plotArea>
-      <pieChart>
-        <varyColors val="1"/>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dPt>
-            <idx val="0"/>
-            <explosion val="20"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <cat>
-            <numRef>
-              <f>'Sheet'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <firstSliceAng val="0"/>
-      </pieChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <ofPieChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Projection'!B1</f>
+              <f>'Sheet1'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -212,42 +163,21 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Projection'!$A$2:$A$5</f>
+              <f>'Sheet1'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Projection'!$B$2:$B$5</f>
+              <f>'Sheet1'!$B$2:$B$77</f>
             </numRef>
           </val>
         </ser>
-        <ofPieType val="pie"/>
-        <splitType val="val"/>
-        <secondPieSize val="75"/>
-        <serLines/>
-      </ofPieChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <ofPieChart>
-        <varyColors val="1"/>
         <ser>
-          <idx val="0"/>
-          <order val="0"/>
+          <idx val="1"/>
+          <order val="1"/>
           <tx>
             <strRef>
-              <f>'Projection'!B1</f>
+              <f>'Sheet1'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -257,20 +187,239 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Projection'!$A$2:$A$5</f>
+              <f>'Sheet1'!$A$2:$A$77</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Projection'!$B$2:$B$5</f>
+              <f>'Sheet1'!$C$2:$C$77</f>
             </numRef>
           </val>
         </ser>
-        <ofPieType val="bar"/>
-        <splitType val="pos"/>
-        <secondPieSize val="75"/>
-        <serLines/>
-      </ofPieChart>
+        <ser>
+          <idx val="2"/>
+          <order val="2"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!D1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$77</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$D$2:$D$77</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!E1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$77</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$E$2:$E$77</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!F1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$77</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$F$2:$F$77</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!G1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$77</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$G$2:$G$77</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="6"/>
+          <order val="6"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!H1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$77</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$H$2:$H$77</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="7"/>
+          <order val="7"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!I1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$77</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$I$2:$I$77</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="8"/>
+          <order val="8"/>
+          <tx>
+            <strRef>
+              <f>'Sheet1'!J1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet1'!$A$2:$A$77</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet1'!$J$2:$J$77</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Fecha</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>KWh</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
     </plotArea>
     <legend>
       <legendPos val="r"/>
@@ -285,12 +434,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>3</col>
+      <col>10</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="10800000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -300,55 +449,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>26</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -641,51 +741,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>0.00525</v>
-      </c>
-      <c r="B1" t="n">
-        <v>0.01123</v>
-      </c>
-      <c r="C1" t="n">
-        <v>0.00495</v>
-      </c>
-      <c r="D1" t="n">
-        <v>0.00582</v>
-      </c>
-      <c r="E1" t="n">
-        <v>0.00539</v>
-      </c>
-      <c r="F1" t="n">
-        <v>0.00425</v>
-      </c>
-      <c r="G1" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="H1" t="n">
-        <v>0.00666</v>
-      </c>
-      <c r="I1" t="n">
-        <v>0.00407</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -695,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,53 +775,291 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Page</t>
+          <t>Fecha y Hora</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Views</t>
+          <t>Energia1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Energia2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Energia3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Energia4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Energia5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Energia6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Energia7</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Energia8</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Energia9</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Search</t>
+          <t>23-6-2022</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95</v>
+        <v>0.1955</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.19065</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19345</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.19384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>23-6-2022</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0.1955</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.19065</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19345</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.19384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Offers</t>
+          <t>23-6-2022</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.1955</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.19065</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19345</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.19384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sales</t>
+          <t>23-6-2022</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5</v>
+        <v>0.1955</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.19065</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19345</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.19384</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23-6-2022</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1955</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.19065</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.19345</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.19384</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23-6-2022</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1955</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.19065</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.19345</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.19384</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23-6-2022</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1955</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.19065</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.19345</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.19384</v>
       </c>
     </row>
   </sheetData>

--- a/pie.xlsx
+++ b/pie.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,39 +797,24 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Energia4</t>
+          <t>Acumulado Energia Mes REDCompañia-Fase-1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Energia5</t>
+          <t>Acumulado Energia REDCompañia-Fase-2</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Energia6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Energia7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Energia8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Energia9</t>
+          <t>Acumulado Energia REDCompañia-Fase-3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23-6-2022</t>
+          <t>27-6-2022</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -840,230 +827,179 @@
         <v>0.19345</v>
       </c>
       <c r="E2" t="n">
-        <v>0.20313</v>
+        <v>5.28859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.19073</v>
+        <v>5.56054</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.19384</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>23-6-2022</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.1955</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.19065</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19345</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.20313</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.19073</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.19384</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>23-6-2022</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.1955</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.19065</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19345</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.20313</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.19073</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.19384</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>23-6-2022</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.1955</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.19065</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.19345</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.20313</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.19073</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.19384</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>23-6-2022</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1955</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.19065</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.19345</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.20313</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.19073</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.19384</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>23-6-2022</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.1955</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.19065</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.19345</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.20313</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.19073</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.19384</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>23-6-2022</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.1955</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.19065</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.19345</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.20313</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.19073</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.19384</v>
+        <v>4.936170000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fecha y Hora</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Energia4</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Energia5</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Energia6</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Acumulado Energia CentralFotovoltaica-Fase-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Acumulado Energia CentralFotovoltaica-Fase-2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Acumulado Energia CentralFotovoltaica-Fase-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>27-6-2022</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.20313</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.19073</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.33224</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.271559999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.15502</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Fecha y Hora</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Energia7</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Energia8</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Energia9</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Acumulado Energia ConsumoCliente-Fase-1</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Acumulado Energia ConsumoCliente-Fase-2</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Acumulado Energia ConsumoCliente-Fase-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>27-6-2022</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.20023</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.19525</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19384</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.442650000000001</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.417689999999999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.14002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/pie.xlsx
+++ b/pie.xlsx
@@ -125,338 +125,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="12"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Energias Totales Diarias</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$B$2:$B$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$C$2:$C$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!D1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$D$2:$D$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$E$2:$E$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!F1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$F$2:$F$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!G1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$G$2:$G$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!H1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$H$2:$H$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!I1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$I$2:$I$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="8"/>
-          <order val="8"/>
-          <tx>
-            <strRef>
-              <f>'Sheet1'!J1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet1'!$A$2:$A$77</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet1'!$J$2:$J$77</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Fecha</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>KWh</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>10</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="10800000" cy="3600000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -761,12 +429,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,50 +463,9 @@
           <t>Energia3</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia Mes REDCompañia-Fase-1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia REDCompañia-Fase-2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia REDCompañia-Fase-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27-6-2022</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1955</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.19065</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19345</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.28859</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.56054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.936170000000001</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -848,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,46 +504,6 @@
           <t>Energia6</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia CentralFotovoltaica-Fase-1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia CentralFotovoltaica-Fase-2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia CentralFotovoltaica-Fase-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27-6-2022</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.20313</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.19073</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.33224</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.271559999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.15502</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -929,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -958,46 +545,6 @@
           <t>Energia9</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia ConsumoCliente-Fase-1</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia ConsumoCliente-Fase-2</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Acumulado Energia ConsumoCliente-Fase-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>27-6-2022</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.20023</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.19525</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19384</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5.442650000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.417689999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5.14002</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/pie.xlsx
+++ b/pie.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,20 +445,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fecha y Hora</t>
+          <t>Energia1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Energia1</t>
+          <t>Energia2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>Energia2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>Energia3</t>
         </is>
@@ -475,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,20 +481,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fecha y Hora</t>
+          <t>Energia4</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Energia4</t>
+          <t>Energia5</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>Energia5</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>Energia6</t>
         </is>
@@ -516,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,20 +517,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Fecha y Hora</t>
+          <t>Energia7</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Energia7</t>
+          <t>Energia8</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>Energia8</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>Energia9</t>
         </is>

--- a/pie.xlsx
+++ b/pie.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,15 +445,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Fecha y Hora</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Energia1</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Energia2</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Energia3</t>
         </is>
@@ -470,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,15 +486,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Fecha y Hora</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Energia4</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Energia5</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Energia6</t>
         </is>
@@ -506,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,15 +527,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Fecha y Hora</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Energia7</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Energia8</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Energia9</t>
         </is>
